--- a/artifacts/InstallmentReports_2020-04_anonymized.xlsx
+++ b/artifacts/InstallmentReports_2020-04_anonymized.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Data BI\SQL\КУРСОВИЙ ПРОЕКТ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E78D6D-347B-49E7-8022-96FDF8133434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C6ECC-A090-4C53-8EFB-0BA2EB9EDCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contract_details" sheetId="1" r:id="rId1"/>
-    <sheet name="contract_summary" sheetId="4" r:id="rId2"/>
-    <sheet name="contract_payments" sheetId="3" r:id="rId3"/>
+    <sheet name="contract_payments" sheetId="3" r:id="rId2"/>
+    <sheet name="contract_summary" sheetId="4" r:id="rId3"/>
     <sheet name="portfolio_summary" sheetId="8" r:id="rId4"/>
     <sheet name="84-228" sheetId="7" r:id="rId5"/>
     <sheet name="67-227" sheetId="9" r:id="rId6"/>
@@ -23,10 +23,10 @@
   <definedNames>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" localSheetId="5" hidden="1">'67-227'!$B$2:$M$3</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" localSheetId="4" hidden="1">'84-228'!$B$2:$M$3</definedName>
-    <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" localSheetId="2" hidden="1">contract_payments!$B$2:$H$14</definedName>
+    <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" localSheetId="1" hidden="1">contract_payments!$B$2:$H$14</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" localSheetId="5" hidden="1">'67-227'!$B$5:$H$13</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" localSheetId="4" hidden="1">'84-228'!$B$5:$H$17</definedName>
-    <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" localSheetId="1" hidden="1">contract_summary!$B$2:$G$3</definedName>
+    <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" localSheetId="2" hidden="1">contract_summary!$B$2:$G$3</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_2" localSheetId="5" hidden="1">'67-227'!$B$15:$G$16</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_2" localSheetId="4" hidden="1">'84-228'!$B$19:$G$20</definedName>
     <definedName name="DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_3" localSheetId="3" hidden="1">portfolio_summary!$B$4:$S$8</definedName>
@@ -433,6 +433,81 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -479,81 +554,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,21 +605,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DESKTOP-LPEU9JD_SQLEXPRESS P_STORE installment_plan_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" name="ID продавця" tableColumnId="1"/>
-      <queryTableField id="2" name="№ контракту розстрочки" tableColumnId="2"/>
-      <queryTableField id="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" tableColumnId="3"/>
-      <queryTableField id="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" tableColumnId="4"/>
-      <queryTableField id="5" name="Залишок по контракту розстрочки всього, грн" tableColumnId="5"/>
-      <queryTableField id="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DESKTOP-LPEU9JD_SQLEXPRESS P_STORE installment_plan" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
@@ -630,6 +615,21 @@
       <queryTableField id="5" name="Розмір щомісячного внеску, грн" tableColumnId="8"/>
       <queryTableField id="6" name="Дата фактичного платежу" tableColumnId="6"/>
       <queryTableField id="7" name="Оплачена сума, грн" tableColumnId="7"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DESKTOP-LPEU9JD_SQLEXPRESS P_STORE installment_plan_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="7">
+    <queryTableFields count="6">
+      <queryTableField id="1" name="ID продавця" tableColumnId="1"/>
+      <queryTableField id="2" name="№ контракту розстрочки" tableColumnId="2"/>
+      <queryTableField id="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" tableColumnId="3"/>
+      <queryTableField id="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" tableColumnId="4"/>
+      <queryTableField id="5" name="Залишок по контракту розстрочки всього, грн" tableColumnId="5"/>
+      <queryTableField id="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" tableColumnId="6"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -782,33 +782,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_211" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_211" ref="B15:G16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B15:G16" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="3" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" uniqueName="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" queryTableFieldId="4" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" uniqueName="5" name="Залишок по контракту розстрочки всього, грн" queryTableFieldId="5" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" uniqueName="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" uniqueName="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" uniqueName="5" name="Залишок по контракту розстрочки всього, грн" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" uniqueName="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" ref="B2:G3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="Залишок по контракту розстрочки всього, грн" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" queryTableFieldId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan" ref="B2:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:H14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
@@ -824,34 +809,49 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1" ref="B2:G3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B2:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="Оплачена клієнтом сума на кінець звітного місяця, грн" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="Залишок по контракту розстрочки всього, грн" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="у т.ч. заборгованість через недоплачу і/чи пропуск щомісячних внесків, грн" queryTableFieldId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_3" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_3" ref="B4:S9" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="B4:S8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="Період розстрочки" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="Наявність заборгованості" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="Сума розстрочки, грн" totalsRowFunction="sum" queryTableFieldId="3" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="Очікувана сума оплати на кінець звітного місяця, грн" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" uniqueName="3" name="Сума розстрочки, грн" totalsRowFunction="sum" queryTableFieldId="3" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" uniqueName="4" name="Очікувана сума оплати на кінець звітного місяця, грн" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="39">
       <totalsRowFormula>SUBTOTAL(109,E5:E8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" uniqueName="5" name="Оплачена сума на кінець звітного місяця, грн" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" uniqueName="5" name="Оплачена сума на кінець звітного місяця, грн" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="38">
       <totalsRowFormula>SUBTOTAL(109,F5:F8)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" uniqueName="6" name="Кількість клієнтів" totalsRowFunction="sum" queryTableFieldId="6" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" uniqueName="7" name="Заборгованість, грн" totalsRowFunction="sum" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" uniqueName="8" name="Залишок по розстрочці, грн" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" uniqueName="9" name="К-ть клієнтів без прострочень (0 міс.)" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" uniqueName="10" name="К-ть клієнтів із простроченням 1 міс." queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" uniqueName="11" name="К-ть клієнтів із простроченням 2 міс." queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" uniqueName="12" name="К-ть клієнтів із простроченням 3 міс." queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" uniqueName="13" name="К-ть клієнтів із простроченнями 4+ міс." totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" uniqueName="6" name="Кількість клієнтів" totalsRowFunction="sum" queryTableFieldId="6" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" uniqueName="7" name="Заборгованість, грн" totalsRowFunction="sum" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" uniqueName="8" name="Залишок по розстрочці, грн" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" uniqueName="9" name="К-ть клієнтів без прострочень (0 міс.)" queryTableFieldId="9" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" uniqueName="10" name="К-ть клієнтів із простроченням 1 міс." queryTableFieldId="10" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" uniqueName="11" name="К-ть клієнтів із простроченням 2 міс." queryTableFieldId="11" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" uniqueName="12" name="К-ть клієнтів із простроченням 3 міс." queryTableFieldId="12" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" uniqueName="13" name="К-ть клієнтів із простроченнями 4+ міс." totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="30">
       <totalsRowFormula>SUM(Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_3[[К-ть клієнтів без прострочень (0 міс.)]:[К-ть клієнтів із простроченнями 4+ міс.]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" uniqueName="14" name="Сума боргу без прострочень (0 міс.)" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" uniqueName="15" name="Сума боргу із простроченням 1 міс." queryTableFieldId="15" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" uniqueName="16" name="Сума боргу із простроченням 2 міс." queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" uniqueName="17" name="Сума боргу із простроченням 3 міс." queryTableFieldId="17" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" uniqueName="18" name="Сума боргу із простроченнями 4+ міс." totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" uniqueName="14" name="Сума боргу без прострочень (0 міс.)" queryTableFieldId="14" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" uniqueName="15" name="Сума боргу із простроченням 1 міс." queryTableFieldId="15" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" uniqueName="16" name="Сума боргу із простроченням 2 міс." queryTableFieldId="16" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" uniqueName="17" name="Сума боргу із простроченням 3 міс." queryTableFieldId="17" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" uniqueName="18" name="Сума боргу із простроченнями 4+ міс." totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="25">
       <totalsRowFormula>SUM(Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_3[[Сума боргу без прострочень (0 міс.)]:[Сума боргу із простроченнями 4+ міс.]])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -915,18 +915,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan59" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan59" ref="B2:M3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:M3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="Назва продавця" queryTableFieldId="3" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" uniqueName="4" name="ПІБ клієнта" queryTableFieldId="4" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" uniqueName="5" name="Назва бренду" queryTableFieldId="5" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" uniqueName="6" name="Назва телефону" queryTableFieldId="6" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" uniqueName="7" name="Колір" queryTableFieldId="7" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" uniqueName="8" name="К-ть місяців розстрочки" queryTableFieldId="8" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" uniqueName="9" name="Розмір щомісячного внеску, грн" queryTableFieldId="9" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" uniqueName="10" name="Дата покупки/оплати першого внеску розстрочки" queryTableFieldId="10" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" uniqueName="14" name="К-ть очікуваних щомісячних внесків на останній день звітного місяця" queryTableFieldId="11" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" uniqueName="12" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="12" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="Назва продавця" queryTableFieldId="3" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" uniqueName="4" name="ПІБ клієнта" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" uniqueName="5" name="Назва бренду" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" uniqueName="6" name="Назва телефону" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" uniqueName="7" name="Колір" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" uniqueName="8" name="К-ть місяців розстрочки" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" uniqueName="9" name="Розмір щомісячного внеску, грн" queryTableFieldId="9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" uniqueName="10" name="Дата покупки/оплати першого внеску розстрочки" queryTableFieldId="10" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" uniqueName="14" name="К-ть очікуваних щомісячних внесків на останній день звітного місяця" queryTableFieldId="11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" uniqueName="12" name="Сума очікуваних щомісячних платежів на кінець звітного місяця, грн" queryTableFieldId="12" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -936,13 +936,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1610" displayName="Таблица_DESKTOP_LPEU9JD_SQLEXPRESS_P_STORE_installment_plan_1610" ref="B5:H13" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:H13" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="Рік оплати очікуваних платежів" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" uniqueName="4" name="Місяць оплати очікуваних платежів" queryTableFieldId="4" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" uniqueName="5" name="Розмір щомісячного внеску, грн" queryTableFieldId="5" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" uniqueName="6" name="Дата фактичного платежу" queryTableFieldId="6" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" uniqueName="7" name="Оплачена сума, грн" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="ID продавця" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" uniqueName="2" name="№ контракту розстрочки" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" uniqueName="3" name="Рік оплати очікуваних платежів" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" uniqueName="4" name="Місяць оплати очікуваних платежів" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" uniqueName="5" name="Розмір щомісячного внеску, грн" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" uniqueName="6" name="Дата фактичного платежу" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" uniqueName="7" name="Оплачена сума, грн" queryTableFieldId="7" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1391,6 +1391,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>228</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>228</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>228</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>119</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>228</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>228</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>228</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>228</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>228</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>119</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>228</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>119</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>228</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>228</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G3"/>
   <sheetViews>
@@ -1449,318 +1761,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>228</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>119</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>228</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>119</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5">
-        <v>84</v>
-      </c>
-      <c r="C5">
-        <v>228</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>119</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6">
-        <v>84</v>
-      </c>
-      <c r="C6">
-        <v>228</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>119</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
-        <v>84</v>
-      </c>
-      <c r="C7">
-        <v>228</v>
-      </c>
-      <c r="D7">
-        <v>2019</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>119</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>228</v>
-      </c>
-      <c r="D8">
-        <v>2019</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9">
-        <v>84</v>
-      </c>
-      <c r="C9">
-        <v>228</v>
-      </c>
-      <c r="D9">
-        <v>2019</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>119</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
-        <v>84</v>
-      </c>
-      <c r="C10">
-        <v>228</v>
-      </c>
-      <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>119</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11">
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <v>228</v>
-      </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>119</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12">
-        <v>84</v>
-      </c>
-      <c r="C12">
-        <v>228</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>119</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>228</v>
-      </c>
-      <c r="D13">
-        <v>2019</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14">
-        <v>84</v>
-      </c>
-      <c r="C14">
-        <v>228</v>
-      </c>
-      <c r="D14">
-        <v>2019</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
